--- a/outputs/present_records_report.xlsx
+++ b/outputs/present_records_report.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1180"/>
+  <dimension ref="A1:K1180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,49 +459,18 @@
           <t>First &amp; Last</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 9</t>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>COUNT</t>
         </is>
       </c>
     </row>
@@ -519,10 +488,9 @@
       <c r="G2" s="2" t="n"/>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1008,10 +976,9 @@
       <c r="G13" s="2" t="n"/>
       <c r="H13" s="2" t="n"/>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3589,10 +3556,9 @@
       <c r="G65" s="2" t="n"/>
       <c r="H65" s="2" t="n"/>
       <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5278,10 +5244,9 @@
       <c r="G101" s="2" t="n"/>
       <c r="H101" s="2" t="n"/>
       <c r="I101" s="2" t="n"/>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J101" s="2" t="n"/>
+      <c r="K101" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -13273,10 +13238,9 @@
       <c r="G260" s="2" t="n"/>
       <c r="H260" s="2" t="n"/>
       <c r="I260" s="2" t="n"/>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J260" s="2" t="n"/>
+      <c r="K260" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -28194,10 +28158,9 @@
       <c r="G557" s="2" t="n"/>
       <c r="H557" s="2" t="n"/>
       <c r="I557" s="2" t="n"/>
-      <c r="J557" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J557" s="2" t="n"/>
+      <c r="K557" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="558">
@@ -28579,10 +28542,9 @@
       <c r="G566" s="2" t="n"/>
       <c r="H566" s="2" t="n"/>
       <c r="I566" s="2" t="n"/>
-      <c r="J566" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J566" s="2" t="n"/>
+      <c r="K566" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -29261,10 +29223,9 @@
       <c r="G581" s="2" t="n"/>
       <c r="H581" s="2" t="n"/>
       <c r="I581" s="2" t="n"/>
-      <c r="J581" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J581" s="2" t="n"/>
+      <c r="K581" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -29980,10 +29941,9 @@
       <c r="G597" s="2" t="n"/>
       <c r="H597" s="2" t="n"/>
       <c r="I597" s="2" t="n"/>
-      <c r="J597" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J597" s="2" t="n"/>
+      <c r="K597" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -30610,10 +30570,9 @@
       <c r="G611" s="2" t="n"/>
       <c r="H611" s="2" t="n"/>
       <c r="I611" s="2" t="n"/>
-      <c r="J611" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J611" s="2" t="n"/>
+      <c r="K611" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -31037,10 +30996,9 @@
       <c r="G621" s="2" t="n"/>
       <c r="H621" s="2" t="n"/>
       <c r="I621" s="2" t="n"/>
-      <c r="J621" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J621" s="2" t="n"/>
+      <c r="K621" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -31266,10 +31224,9 @@
       <c r="G627" s="2" t="n"/>
       <c r="H627" s="2" t="n"/>
       <c r="I627" s="2" t="n"/>
-      <c r="J627" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J627" s="2" t="n"/>
+      <c r="K627" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -31599,10 +31556,9 @@
       <c r="G635" s="2" t="n"/>
       <c r="H635" s="2" t="n"/>
       <c r="I635" s="2" t="n"/>
-      <c r="J635" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J635" s="2" t="n"/>
+      <c r="K635" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -31927,10 +31883,9 @@
       <c r="G643" s="2" t="n"/>
       <c r="H643" s="2" t="n"/>
       <c r="I643" s="2" t="n"/>
-      <c r="J643" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J643" s="2" t="n"/>
+      <c r="K643" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -32047,10 +32002,9 @@
       <c r="G647" s="2" t="n"/>
       <c r="H647" s="2" t="n"/>
       <c r="I647" s="2" t="n"/>
-      <c r="J647" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J647" s="2" t="n"/>
+      <c r="K647" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -32952,10 +32906,9 @@
       <c r="G666" s="2" t="n"/>
       <c r="H666" s="2" t="n"/>
       <c r="I666" s="2" t="n"/>
-      <c r="J666" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J666" s="2" t="n"/>
+      <c r="K666" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -34503,10 +34456,9 @@
       <c r="G698" s="2" t="n"/>
       <c r="H698" s="2" t="n"/>
       <c r="I698" s="2" t="n"/>
-      <c r="J698" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J698" s="2" t="n"/>
+      <c r="K698" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -34628,10 +34580,9 @@
       <c r="G702" s="2" t="n"/>
       <c r="H702" s="2" t="n"/>
       <c r="I702" s="2" t="n"/>
-      <c r="J702" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J702" s="2" t="n"/>
+      <c r="K702" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -34857,10 +34808,9 @@
       <c r="G708" s="2" t="n"/>
       <c r="H708" s="2" t="n"/>
       <c r="I708" s="2" t="n"/>
-      <c r="J708" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J708" s="2" t="n"/>
+      <c r="K708" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -35700,10 +35650,9 @@
       <c r="G726" s="2" t="n"/>
       <c r="H726" s="2" t="n"/>
       <c r="I726" s="2" t="n"/>
-      <c r="J726" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J726" s="2" t="n"/>
+      <c r="K726" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -36174,10 +36123,9 @@
       <c r="G737" s="2" t="n"/>
       <c r="H737" s="2" t="n"/>
       <c r="I737" s="2" t="n"/>
-      <c r="J737" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J737" s="2" t="n"/>
+      <c r="K737" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -39342,10 +39290,9 @@
       <c r="G800" s="2" t="n"/>
       <c r="H800" s="2" t="n"/>
       <c r="I800" s="2" t="n"/>
-      <c r="J800" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J800" s="2" t="n"/>
+      <c r="K800" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -40170,10 +40117,9 @@
       <c r="G818" s="2" t="n"/>
       <c r="H818" s="2" t="n"/>
       <c r="I818" s="2" t="n"/>
-      <c r="J818" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J818" s="2" t="n"/>
+      <c r="K818" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -40295,10 +40241,9 @@
       <c r="G822" s="2" t="n"/>
       <c r="H822" s="2" t="n"/>
       <c r="I822" s="2" t="n"/>
-      <c r="J822" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J822" s="2" t="n"/>
+      <c r="K822" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -41408,10 +41353,9 @@
       <c r="G845" s="2" t="n"/>
       <c r="H845" s="2" t="n"/>
       <c r="I845" s="2" t="n"/>
-      <c r="J845" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J845" s="2" t="n"/>
+      <c r="K845" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -41533,10 +41477,9 @@
       <c r="G849" s="2" t="n"/>
       <c r="H849" s="2" t="n"/>
       <c r="I849" s="2" t="n"/>
-      <c r="J849" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J849" s="2" t="n"/>
+      <c r="K849" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -42178,10 +42121,9 @@
       <c r="G863" s="2" t="n"/>
       <c r="H863" s="2" t="n"/>
       <c r="I863" s="2" t="n"/>
-      <c r="J863" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J863" s="2" t="n"/>
+      <c r="K863" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -42303,10 +42245,9 @@
       <c r="G867" s="2" t="n"/>
       <c r="H867" s="2" t="n"/>
       <c r="I867" s="2" t="n"/>
-      <c r="J867" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J867" s="2" t="n"/>
+      <c r="K867" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -42725,10 +42666,9 @@
       <c r="G877" s="2" t="n"/>
       <c r="H877" s="2" t="n"/>
       <c r="I877" s="2" t="n"/>
-      <c r="J877" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J877" s="2" t="n"/>
+      <c r="K877" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -43630,10 +43570,9 @@
       <c r="G896" s="2" t="n"/>
       <c r="H896" s="2" t="n"/>
       <c r="I896" s="2" t="n"/>
-      <c r="J896" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J896" s="2" t="n"/>
+      <c r="K896" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -46033,10 +45972,9 @@
       <c r="G944" s="2" t="n"/>
       <c r="H944" s="2" t="n"/>
       <c r="I944" s="2" t="n"/>
-      <c r="J944" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J944" s="2" t="n"/>
+      <c r="K944" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="945">
@@ -54268,10 +54206,9 @@
       <c r="G1113" s="2" t="n"/>
       <c r="H1113" s="2" t="n"/>
       <c r="I1113" s="2" t="n"/>
-      <c r="J1113" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J1113" s="2" t="n"/>
+      <c r="K1113" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1114">
@@ -54393,10 +54330,9 @@
       <c r="G1117" s="2" t="n"/>
       <c r="H1117" s="2" t="n"/>
       <c r="I1117" s="2" t="n"/>
-      <c r="J1117" s="2" t="inlineStr">
-        <is>
-          <t>Count: 0</t>
-        </is>
+      <c r="J1117" s="2" t="n"/>
+      <c r="K1117" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="1118">
